--- a/dataset/ics-attack-playbook-list1-v13.1.xlsx
+++ b/dataset/ics-attack-playbook-list1-v13.1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jis99\PycharmProjects\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeong-insu/Desktop/IITP/IITP_workflow/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7F8576-A884-814A-83A8-1912E3D05C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="playbook_list" sheetId="1" r:id="rId1"/>
@@ -832,10 +833,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>playbook name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>T0807</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -880,15 +877,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>playbook existence</t>
+    <t>playbook_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>playbook_existence</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -970,9 +971,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1010,9 +1011,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1047,7 +1048,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1082,7 +1083,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1255,35 +1256,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.625" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.875" customWidth="1"/>
-    <col min="10" max="10" width="239.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" customWidth="1"/>
+    <col min="10" max="10" width="239.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>282</v>
@@ -1319,9 +1320,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
@@ -1339,9 +1340,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
         <v>81</v>
@@ -1359,9 +1360,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -1379,9 +1380,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -1399,9 +1400,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -1419,9 +1420,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -1439,9 +1440,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -1459,9 +1460,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -1479,9 +1480,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -1499,9 +1500,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -1519,9 +1520,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
         <v>90</v>
@@ -1539,7 +1540,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1636,7 +1637,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1693,7 +1694,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1713,7 +1714,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1730,7 +1731,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1750,7 +1751,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1770,7 +1771,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1810,7 +1811,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1830,7 +1831,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1850,7 +1851,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1950,7 +1951,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -2010,7 +2011,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2266,7 +2267,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2286,7 +2287,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2306,7 +2307,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2386,7 +2387,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -2466,7 +2467,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -2486,7 +2487,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -2546,7 +2547,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -2566,7 +2567,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -2626,7 +2627,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -2706,7 +2707,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -2766,7 +2767,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>79</v>
       </c>
